--- a/FileInput/DataEngine.xlsx
+++ b/FileInput/DataEngine.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\JAVA_SELENIUM\ERP_Hybrid\FileInput\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EDC34B0-9D58-4833-9D1F-FBDAA82F5258}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D117664-BE1E-4D1C-A46A-20EA42597202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{FE95A3C8-182A-4A65-86C0-5021E433C36E}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" firstSheet="1" activeTab="2" xr2:uid="{FE95A3C8-182A-4A65-86C0-5021E433C36E}"/>
   </bookViews>
   <sheets>
     <sheet name="MasterTestCases" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="169" uniqueCount="70">
   <si>
     <t>TCID</t>
   </si>
@@ -146,27 +146,18 @@
     <t>xpath</t>
   </si>
   <si>
-    <t>\\input</t>
-  </si>
-  <si>
     <t>Click Login button</t>
   </si>
   <si>
     <t>clickAction</t>
   </si>
   <si>
-    <t>Id</t>
-  </si>
-  <si>
     <t>master</t>
   </si>
   <si>
     <t>Wait for logout link</t>
   </si>
   <si>
-    <t>btnsubmit</t>
-  </si>
-  <si>
     <t>Validate Page button</t>
   </si>
   <si>
@@ -207,6 +198,54 @@
   </si>
   <si>
     <t>Enter Category Name</t>
+  </si>
+  <si>
+    <t>//a[starts-with(text(),'Stock Items ')]</t>
+  </si>
+  <si>
+    <t>//input[@id='x_Category_Name']</t>
+  </si>
+  <si>
+    <t>kids</t>
+  </si>
+  <si>
+    <t>Click on OK</t>
+  </si>
+  <si>
+    <t>Wait for  Click Ok</t>
+  </si>
+  <si>
+    <t>Validating the Data</t>
+  </si>
+  <si>
+    <t>Wait for confirm ok button</t>
+  </si>
+  <si>
+    <t>Click confirm on OK button</t>
+  </si>
+  <si>
+    <t>CategoryTable</t>
+  </si>
+  <si>
+    <t>Click on ADD Button</t>
+  </si>
+  <si>
+    <t>//button[@id='btnAction']</t>
+  </si>
+  <si>
+    <t>//button[contains(.,'OK!')]</t>
+  </si>
+  <si>
+    <t>(//button[contains(normalize-space(),'OK')])[6]</t>
+  </si>
+  <si>
+    <t>//input[@id='password']</t>
+  </si>
+  <si>
+    <t>(//a[starts-with(text(),' Logout')])[2]</t>
+  </si>
+  <si>
+    <t>//button[@id='btnsubmit']</t>
   </si>
 </sst>
 </file>
@@ -587,8 +626,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5961917-6597-405A-B61F-09565310AB95}">
   <dimension ref="A1:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -630,7 +669,7 @@
         <v>8</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -677,7 +716,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -788,24 +827,24 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="11.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -813,7 +852,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -821,17 +860,19 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="33" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -840,30 +881,32 @@
         <v>23</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="1" t="s">
+        <v>68</v>
+      </c>
       <c r="E10" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>23</v>
@@ -876,20 +919,17 @@
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{FD5229A8-B94F-4CA9-A306-85A94BD0218D}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA254205-40ED-4D1A-8A7C-C9AC4C7085FF}">
-  <dimension ref="A1:F13"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -897,7 +937,8 @@
     <col min="1" max="1" width="24" customWidth="1"/>
     <col min="2" max="2" width="15.21875" customWidth="1"/>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="4" max="4" width="28.5546875" customWidth="1"/>
+    <col min="4" max="4" width="32.5546875" customWidth="1"/>
+    <col min="5" max="5" width="13.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18" x14ac:dyDescent="0.35">
@@ -931,7 +972,7 @@
         <v>23</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>23</v>
@@ -999,24 +1040,24 @@
         <v>35</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="16.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>42</v>
+        <v>69</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>23</v>
@@ -1024,7 +1065,7 @@
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B8" s="1" t="s">
         <v>28</v>
@@ -1032,16 +1073,19 @@
       <c r="C8" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D8" t="s">
+        <v>54</v>
+      </c>
       <c r="E8">
         <v>10</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>23</v>
@@ -1055,7 +1099,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>28</v>
@@ -1063,24 +1107,33 @@
       <c r="C10" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E10">
+        <v>10</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>54</v>
+        <v>51</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B12" s="1" t="s">
         <v>28</v>
@@ -1088,16 +1141,147 @@
       <c r="C12" s="1" t="s">
         <v>35</v>
       </c>
+      <c r="D12" t="s">
+        <v>55</v>
+      </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" t="s">
+        <v>55</v>
+      </c>
+      <c r="E13" s="1" t="s">
         <v>56</v>
       </c>
     </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D17" t="s">
+        <v>66</v>
+      </c>
+      <c r="E17" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D18" t="s">
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="D6" r:id="rId1" xr:uid="{4B1C5559-D2C2-4E5A-BB20-5187845735B5}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>